--- a/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/营业利润.xlsx
+++ b/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/营业利润.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,381 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>9.063610000000001</v>
-      </c>
-      <c r="C2" t="n">
-        <v>9.443899999999999</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.31368</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.00593</v>
-      </c>
-      <c r="F2" t="n">
-        <v>4.08494</v>
-      </c>
-      <c r="G2" t="n">
-        <v>10.87101</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.48797</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4.32338</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.74627</v>
-      </c>
-      <c r="K2" t="n">
-        <v>7.7163</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.38682</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.9959</v>
-      </c>
-      <c r="N2" t="n">
-        <v>10.78946</v>
-      </c>
-      <c r="O2" t="n">
-        <v>4.98143</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.79642</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>9.106199999999999</v>
-      </c>
-      <c r="R2" t="n">
-        <v>5.5747</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="n">
-        <v>2.23893</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.04195</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.01902</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.71434</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1.85006</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>7.55234</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>15.02986</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>6.40563</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1.65218</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.21442</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>186.38913</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>16.68083</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>-0.00532</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>3.35351</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>12.01948</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>9.12453</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1.4147</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>3.90144</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>9.616199999999999</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>2.79365</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>5.39426</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.6892</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>11.30306</v>
-      </c>
-      <c r="C3" t="n">
-        <v>14.55737</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.95539</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.008399999999999999</v>
-      </c>
-      <c r="F3" t="n">
-        <v>6.79026</v>
-      </c>
-      <c r="G3" t="n">
-        <v>20.20714</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.63563</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5.64495</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.94973</v>
-      </c>
-      <c r="K3" t="n">
-        <v>11.4464</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4.39485</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4.50387</v>
-      </c>
-      <c r="N3" t="n">
-        <v>20.70227</v>
-      </c>
-      <c r="O3" t="n">
-        <v>5.02911</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.70932</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>13.3803</v>
-      </c>
-      <c r="R3" t="n">
-        <v>8.17417</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.00491</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3.19843</v>
-      </c>
-      <c r="U3" t="n">
-        <v>-0.01341</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.17627</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.76022</v>
-      </c>
-      <c r="X3" t="n">
-        <v>2.07914</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>11.11444</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>24.18121</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>9.48287</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>2.02701</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.0126</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>300.51256</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>30.60235</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.20439</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>5.90631</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>19.19279</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>16.68376</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1.50789</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>6.50724</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>13.73694</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>4.08911</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>9.053179999999999</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1.61269</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>18.63374</v>
-      </c>
-      <c r="C4" t="n">
-        <v>23.74613</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.69788</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.0016</v>
-      </c>
-      <c r="F4" t="n">
-        <v>9.41526</v>
-      </c>
-      <c r="G4" t="n">
-        <v>34.45195</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.78625</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10.24078</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.93058</v>
-      </c>
-      <c r="K4" t="n">
-        <v>20.85023</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5.46651</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6.39558</v>
-      </c>
-      <c r="N4" t="n">
-        <v>33.55411</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8.140599999999999</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.62649</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>21.51146</v>
-      </c>
-      <c r="R4" t="n">
-        <v>9.885160000000001</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>5.28614</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.00812</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.01106</v>
-      </c>
-      <c r="W4" t="n">
-        <v>4.20809</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1.22822</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>16.04607</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>35.52169</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>18.59095</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>5.31937</v>
-      </c>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="n">
-        <v>494.07129</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>51.21284</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.15689</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>11.1305</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>32.21936</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>32.33822</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>3.13361</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>9.44614</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>23.61228</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>6.23114</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>18.69184</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>2.34445</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
